--- a/data/trans_orig/P57C2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Provincia-trans_orig.xlsx
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5881</v>
+        <v>6830</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.003902431350577381</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01844352536099575</v>
+        <v>0.0214210093010009</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -809,19 +809,19 @@
         <v>3474</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1433</v>
+        <v>1477</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6639</v>
+        <v>6971</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01099160945870148</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004533724982972704</v>
+        <v>0.004673353843716565</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02100397783742388</v>
+        <v>0.02205735760011628</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -830,19 +830,19 @@
         <v>4718</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2137</v>
+        <v>2054</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10648</v>
+        <v>9923</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007431474167909197</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003365440551888688</v>
+        <v>0.003235262529105455</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01677070175897504</v>
+        <v>0.01562886214495416</v>
       </c>
     </row>
     <row r="6">
@@ -859,19 +859,19 @@
         <v>15265</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8591</v>
+        <v>8937</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24467</v>
+        <v>24567</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.04787655330958741</v>
+        <v>0.04787655330958742</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02694367977605942</v>
+        <v>0.02802940641719433</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07673718452991302</v>
+        <v>0.07705020364669782</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>38</v>
@@ -880,19 +880,19 @@
         <v>18993</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13692</v>
+        <v>13463</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25610</v>
+        <v>25515</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.0600936421321427</v>
+        <v>0.06009364213214268</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04331951541870349</v>
+        <v>0.04259471422098233</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08102943847921321</v>
+        <v>0.0807290575644693</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -901,19 +901,19 @@
         <v>34258</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>26104</v>
+        <v>25742</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45872</v>
+        <v>44547</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05395830621526414</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0411154028306023</v>
+        <v>0.04054520362982757</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07225043873748993</v>
+        <v>0.07016314252043566</v>
       </c>
     </row>
     <row r="7">
@@ -930,19 +930,19 @@
         <v>258670</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>243690</v>
+        <v>244081</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>271087</v>
+        <v>271948</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8112706894956468</v>
+        <v>0.811270689495647</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7642885806869142</v>
+        <v>0.7655157554093832</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8502163285522523</v>
+        <v>0.8529160221387729</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>421</v>
@@ -951,19 +951,19 @@
         <v>249993</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>237005</v>
+        <v>237756</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>261052</v>
+        <v>260193</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7909646398750246</v>
+        <v>0.7909646398750247</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7498721067748026</v>
+        <v>0.752245986920611</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8259538892227027</v>
+        <v>0.8232364519363352</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>688</v>
@@ -972,19 +972,19 @@
         <v>508663</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>489770</v>
+        <v>489767</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>526023</v>
+        <v>525805</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8011621949044448</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7714061003797859</v>
+        <v>0.7714014113616698</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8285050755351767</v>
+        <v>0.828162438727067</v>
       </c>
     </row>
     <row r="8">
@@ -1001,19 +1001,19 @@
         <v>43666</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>33345</v>
+        <v>33284</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>57394</v>
+        <v>57753</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1369503258441883</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1045803084886734</v>
+        <v>0.1043877374742448</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1800057762185326</v>
+        <v>0.1811307267356177</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>72</v>
@@ -1022,19 +1022,19 @@
         <v>43601</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34431</v>
+        <v>34842</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>55680</v>
+        <v>55594</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1379501085341312</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1089383830495708</v>
+        <v>0.1102375313954368</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1761683726681894</v>
+        <v>0.1758976833128501</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>119</v>
@@ -1043,19 +1043,19 @@
         <v>87267</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>70229</v>
+        <v>73002</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>103415</v>
+        <v>103607</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1374480247123818</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1106138380301525</v>
+        <v>0.1149805913872056</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1628819959923608</v>
+        <v>0.1631843408512129</v>
       </c>
     </row>
     <row r="9">
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7013</v>
+        <v>7174</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002688935937743353</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01324101529800295</v>
+        <v>0.01354489015711731</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6712</v>
+        <v>7820</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004050056430684118</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01239495654796658</v>
+        <v>0.01444045152535753</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>3618</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10411</v>
+        <v>9467</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003377048945632891</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001007712503473179</v>
+        <v>0.001001331488522763</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009719325689492991</v>
+        <v>0.008837687689582227</v>
       </c>
     </row>
     <row r="11">
@@ -1218,19 +1218,19 @@
         <v>9025</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3607</v>
+        <v>2680</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20399</v>
+        <v>20763</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01703839435163694</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006809561473180851</v>
+        <v>0.00505891412493818</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03851416862371142</v>
+        <v>0.03920014167814886</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -1239,19 +1239,19 @@
         <v>7145</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4314</v>
+        <v>3791</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13056</v>
+        <v>12413</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01319345061259042</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007966582691319741</v>
+        <v>0.007000625063182475</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02410791560926397</v>
+        <v>0.02292101572595483</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -1260,19 +1260,19 @@
         <v>16169</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9955</v>
+        <v>9393</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>28032</v>
+        <v>27453</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.01509458716104423</v>
+        <v>0.01509458716104424</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.009293153971608379</v>
+        <v>0.008768359505063959</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02616856060757312</v>
+        <v>0.02562845648418945</v>
       </c>
     </row>
     <row r="12">
@@ -1289,19 +1289,19 @@
         <v>35161</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22044</v>
+        <v>22412</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>52432</v>
+        <v>53779</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06638392908583599</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04161831072904399</v>
+        <v>0.04231477282984154</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09899176732357765</v>
+        <v>0.1015349519086335</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>69</v>
@@ -1310,19 +1310,19 @@
         <v>47515</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36957</v>
+        <v>37549</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>59287</v>
+        <v>59801</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08773874239301974</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0682424228034435</v>
+        <v>0.06933678653301677</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.109477551976235</v>
+        <v>0.1104259689512565</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>94</v>
@@ -1331,19 +1331,19 @@
         <v>82676</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>66750</v>
+        <v>65065</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>102596</v>
+        <v>103406</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07717983208923396</v>
+        <v>0.07717983208923397</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06231302436422034</v>
+        <v>0.06074025979094279</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09577638952009891</v>
+        <v>0.09653258878585796</v>
       </c>
     </row>
     <row r="13">
@@ -1360,19 +1360,19 @@
         <v>278836</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>248517</v>
+        <v>248615</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>308619</v>
+        <v>310491</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5264438233406962</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4692018465557889</v>
+        <v>0.4693851441669296</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5826734557051282</v>
+        <v>0.5862089250015244</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>417</v>
@@ -1381,19 +1381,19 @@
         <v>315869</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>293659</v>
+        <v>296194</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>335964</v>
+        <v>336740</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.5832700447915412</v>
+        <v>0.5832700447915413</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.542258033008109</v>
+        <v>0.546939469761499</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6203779248547824</v>
+        <v>0.6218096302690301</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>626</v>
@@ -1402,19 +1402,19 @@
         <v>594704</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>556365</v>
+        <v>560773</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>629146</v>
+        <v>630275</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5551722587527987</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5193816757390688</v>
+        <v>0.5234965931385915</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5873239601146274</v>
+        <v>0.5883784002721895</v>
       </c>
     </row>
     <row r="14">
@@ -1431,19 +1431,19 @@
         <v>205214</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>177116</v>
+        <v>175906</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>235885</v>
+        <v>235505</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3874449172840875</v>
+        <v>0.3874449172840876</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3343953842388362</v>
+        <v>0.3321112025023725</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4453517365087868</v>
+        <v>0.4446337295648904</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>212</v>
@@ -1452,19 +1452,19 @@
         <v>168826</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>150031</v>
+        <v>149760</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>189203</v>
+        <v>189233</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3117477057721645</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2770407572244403</v>
+        <v>0.2765398742328102</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3493752650639949</v>
+        <v>0.349430300472892</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>352</v>
@@ -1473,19 +1473,19 @@
         <v>374040</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>339604</v>
+        <v>340269</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>410553</v>
+        <v>407912</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3491762730512902</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3170293345545119</v>
+        <v>0.3176503551189997</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3832619439863182</v>
+        <v>0.3807963006884746</v>
       </c>
     </row>
     <row r="15">
@@ -1577,19 +1577,19 @@
         <v>4807</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2112</v>
+        <v>1747</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10339</v>
+        <v>10017</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01531512350133863</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006727811414923111</v>
+        <v>0.005565242103620765</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0329428249011845</v>
+        <v>0.03191807927149838</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1598,19 +1598,19 @@
         <v>5894</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2867</v>
+        <v>2899</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10360</v>
+        <v>9936</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01661933500187808</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008082811423651493</v>
+        <v>0.008174170576438057</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02920945715874094</v>
+        <v>0.02801337908530746</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -1619,19 +1619,19 @@
         <v>10701</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6520</v>
+        <v>6439</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16789</v>
+        <v>17396</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.0160070501952576</v>
+        <v>0.01600705019525761</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009752619137355588</v>
+        <v>0.00963145007379769</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0251141584817078</v>
+        <v>0.02602148090979236</v>
       </c>
     </row>
     <row r="17">
@@ -1648,19 +1648,19 @@
         <v>12967</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7184</v>
+        <v>7728</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22078</v>
+        <v>21046</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04131582046931979</v>
+        <v>0.04131582046931978</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02289020145205027</v>
+        <v>0.02462229884778731</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07034638751622804</v>
+        <v>0.06705722101933927</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -1669,19 +1669,19 @@
         <v>16747</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11337</v>
+        <v>11778</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24188</v>
+        <v>24016</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04721725550758024</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03196581679755434</v>
+        <v>0.03320686944014783</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06819702080810225</v>
+        <v>0.06771419126366184</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>42</v>
@@ -1690,19 +1690,19 @@
         <v>29714</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21146</v>
+        <v>21112</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>39564</v>
+        <v>39445</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04444672403343663</v>
+        <v>0.04444672403343664</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03163039171521292</v>
+        <v>0.0315799305188642</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05918141242207834</v>
+        <v>0.0590036016537567</v>
       </c>
     </row>
     <row r="18">
@@ -1719,19 +1719,19 @@
         <v>36142</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26417</v>
+        <v>26202</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>48466</v>
+        <v>47161</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1151561811809905</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08416972999857467</v>
+        <v>0.08348741850127189</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1544231119279881</v>
+        <v>0.1502676437034438</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>65</v>
@@ -1740,19 +1740,19 @@
         <v>42185</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>32489</v>
+        <v>32512</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>53446</v>
+        <v>52632</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1189416050404375</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09160189632784017</v>
+        <v>0.09166781954945233</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1506918445733966</v>
+        <v>0.148396775575496</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>110</v>
@@ -1761,19 +1761,19 @@
         <v>78327</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>65010</v>
+        <v>64525</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>94721</v>
+        <v>93679</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1171644718723897</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09724439646643987</v>
+        <v>0.09651899788830767</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1416876544409253</v>
+        <v>0.1401281525373133</v>
       </c>
     </row>
     <row r="19">
@@ -1790,19 +1790,19 @@
         <v>107036</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>90585</v>
+        <v>91424</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>122457</v>
+        <v>123554</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3410428473922142</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.288627647138706</v>
+        <v>0.2913000452605403</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3901773009797599</v>
+        <v>0.3936723809701609</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>223</v>
@@ -1811,19 +1811,19 @@
         <v>141247</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>126626</v>
+        <v>126801</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>157972</v>
+        <v>157924</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3982472293004346</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3570228602651335</v>
+        <v>0.3575161680499433</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4454027954983</v>
+        <v>0.445268822215792</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>354</v>
@@ -1832,19 +1832,19 @@
         <v>248283</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>228310</v>
+        <v>226670</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>274362</v>
+        <v>270801</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3713916357866284</v>
+        <v>0.3713916357866285</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3415148833522065</v>
+        <v>0.3390626070523599</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4104012131235973</v>
+        <v>0.4050744347244881</v>
       </c>
     </row>
     <row r="20">
@@ -1861,19 +1861,19 @@
         <v>152898</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>135567</v>
+        <v>133999</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>169994</v>
+        <v>168742</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4871700274561368</v>
+        <v>0.4871700274561367</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4319491524657518</v>
+        <v>0.4269526903700169</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5416414871402552</v>
+        <v>0.5376538972961789</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>207</v>
@@ -1882,19 +1882,19 @@
         <v>148599</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>132976</v>
+        <v>131641</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>164805</v>
+        <v>163874</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4189745751496696</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3749280927741507</v>
+        <v>0.371163706560722</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4646696583302228</v>
+        <v>0.4620429126666735</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>368</v>
@@ -1903,19 +1903,19 @@
         <v>301496</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>279038</v>
+        <v>279011</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>324304</v>
+        <v>324313</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4509901181122874</v>
+        <v>0.4509901181122875</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4173964983251897</v>
+        <v>0.4173559047069192</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4851066845601403</v>
+        <v>0.4851208096211321</v>
       </c>
     </row>
     <row r="21">
@@ -2007,19 +2007,19 @@
         <v>13428</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6369</v>
+        <v>6950</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25469</v>
+        <v>28353</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03605170863161425</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01710038490646461</v>
+        <v>0.01865807446784579</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06837753188198767</v>
+        <v>0.07612205868702795</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -2028,19 +2028,19 @@
         <v>15727</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9381</v>
+        <v>9309</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30618</v>
+        <v>27966</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.03733708978201467</v>
+        <v>0.03733708978201466</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02227157669354495</v>
+        <v>0.02209968418097976</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07269070507818914</v>
+        <v>0.06639325672764199</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>29</v>
@@ -2049,19 +2049,19 @@
         <v>29155</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18635</v>
+        <v>18905</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>45823</v>
+        <v>45194</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03673386813357939</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02347879438614977</v>
+        <v>0.02381883750100981</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0577337373466727</v>
+        <v>0.05694135683969507</v>
       </c>
     </row>
     <row r="23">
@@ -2078,19 +2078,19 @@
         <v>7120</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2646</v>
+        <v>2900</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14742</v>
+        <v>16330</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.01911494744900886</v>
+        <v>0.01911494744900885</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.00710459667904099</v>
+        <v>0.007785868395114223</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03957878331507632</v>
+        <v>0.04384160521526458</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>24</v>
@@ -2099,19 +2099,19 @@
         <v>14597</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9319</v>
+        <v>9920</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>21378</v>
+        <v>22342</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.03465524035437889</v>
+        <v>0.03465524035437888</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02212359311737291</v>
+        <v>0.02355159120864905</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05075306425313188</v>
+        <v>0.05304138738281833</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>31</v>
@@ -2120,19 +2120,19 @@
         <v>21717</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>14770</v>
+        <v>14657</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>32313</v>
+        <v>31671</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02736227429475984</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01860916058416579</v>
+        <v>0.01846642858918534</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04071237868563905</v>
+        <v>0.03990326752119837</v>
       </c>
     </row>
     <row r="24">
@@ -2149,19 +2149,19 @@
         <v>59752</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>44705</v>
+        <v>46442</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>79862</v>
+        <v>80905</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1604182221496055</v>
+        <v>0.1604182221496054</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1200209929395724</v>
+        <v>0.1246858196599518</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2144104164881873</v>
+        <v>0.2172085541341378</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>130</v>
@@ -2170,19 +2170,19 @@
         <v>72930</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>60568</v>
+        <v>61513</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>86867</v>
+        <v>85860</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1731422052137847</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1437922041579261</v>
+        <v>0.1460362380365248</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2062290626402162</v>
+        <v>0.2038373423484561</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>186</v>
@@ -2191,19 +2191,19 @@
         <v>132682</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>113490</v>
+        <v>113068</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>155837</v>
+        <v>155830</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1671709164359419</v>
+        <v>0.1671709164359418</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1429900248641501</v>
+        <v>0.1424592378823684</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1963453497616351</v>
+        <v>0.1963369556448058</v>
       </c>
     </row>
     <row r="25">
@@ -2220,19 +2220,19 @@
         <v>77431</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>61135</v>
+        <v>60907</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>97426</v>
+        <v>97269</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2078839921027543</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1641328438236138</v>
+        <v>0.1635208698099812</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2615654638070989</v>
+        <v>0.2611431510951048</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>179</v>
@@ -2241,19 +2241,19 @@
         <v>120359</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>105137</v>
+        <v>104305</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>139973</v>
+        <v>138140</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.285741013683212</v>
+        <v>0.2857410136832119</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2496029544292436</v>
+        <v>0.2476281071729548</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.332305805122078</v>
+        <v>0.3279558154606566</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>255</v>
@@ -2262,19 +2262,19 @@
         <v>197790</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>174737</v>
+        <v>172912</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>223484</v>
+        <v>223903</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2492031813947938</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2201574402355303</v>
+        <v>0.2178587256780247</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2815760976176828</v>
+        <v>0.2821047421924371</v>
       </c>
     </row>
     <row r="26">
@@ -2291,19 +2291,19 @@
         <v>214743</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>188390</v>
+        <v>190198</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>238451</v>
+        <v>238888</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5765311296670173</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5057810487714711</v>
+        <v>0.5106342052748423</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.640182065579899</v>
+        <v>0.6413543552114465</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>244</v>
@@ -2312,19 +2312,19 @@
         <v>197603</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>176009</v>
+        <v>179946</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>216722</v>
+        <v>219184</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4691244509666099</v>
+        <v>0.4691244509666098</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4178603241284278</v>
+        <v>0.4272060620330196</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5145162763823921</v>
+        <v>0.5203600655027237</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>387</v>
@@ -2333,19 +2333,19 @@
         <v>412345</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>379931</v>
+        <v>379222</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>444646</v>
+        <v>443529</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5195297597409252</v>
+        <v>0.5195297597409253</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.478690203654699</v>
+        <v>0.4777972991402987</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.560226508802292</v>
+        <v>0.5588202594130646</v>
       </c>
     </row>
     <row r="27">
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5444</v>
+        <v>5050</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007402208209428653</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02647106153932752</v>
+        <v>0.02455242400097587</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2857</v>
+        <v>3136</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.004040536988834435</v>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01259400123694053</v>
+        <v>0.01382684316428326</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -2479,19 +2479,19 @@
         <v>2439</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6189</v>
+        <v>6166</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.005639141114239467</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001750754273323007</v>
+        <v>0.001714673287873499</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01431107070084652</v>
+        <v>0.01425754878558445</v>
       </c>
     </row>
     <row r="29">
@@ -2508,19 +2508,19 @@
         <v>5914</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10567</v>
+        <v>11201</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02875615532898077</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0144628066642308</v>
+        <v>0.01445153492867475</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05137898520328791</v>
+        <v>0.05446004709173036</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>21</v>
@@ -2529,19 +2529,19 @@
         <v>10168</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6569</v>
+        <v>6428</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17246</v>
+        <v>16956</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.04483005182299561</v>
+        <v>0.0448300518229956</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02896265436652024</v>
+        <v>0.0283378280979863</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07603234882438525</v>
+        <v>0.07475531741545657</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>31</v>
@@ -2550,19 +2550,19 @@
         <v>16083</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>11042</v>
+        <v>11354</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>23172</v>
+        <v>24742</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.0371862950245174</v>
+        <v>0.03718629502451739</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02553128886456107</v>
+        <v>0.02625241479714805</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05357834679286187</v>
+        <v>0.05720900608576073</v>
       </c>
     </row>
     <row r="30">
@@ -2579,19 +2579,19 @@
         <v>11919</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6986</v>
+        <v>7362</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18146</v>
+        <v>18425</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.05795451047846328</v>
+        <v>0.05795451047846326</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03396833354381183</v>
+        <v>0.03579662367567883</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08823239027783308</v>
+        <v>0.08958886449776579</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>34</v>
@@ -2600,19 +2600,19 @@
         <v>13730</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9885</v>
+        <v>9862</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19843</v>
+        <v>18992</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.06053101992137929</v>
+        <v>0.06053101992137927</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04358079119969927</v>
+        <v>0.04347942025546177</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08748193510391183</v>
+        <v>0.08372904095083335</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>53</v>
@@ -2621,19 +2621,19 @@
         <v>25649</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>19152</v>
+        <v>19583</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>33502</v>
+        <v>33971</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05930579045831998</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04428231816966674</v>
+        <v>0.04527952091235244</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07746251364823976</v>
+        <v>0.07854839847561433</v>
       </c>
     </row>
     <row r="31">
@@ -2650,19 +2650,19 @@
         <v>153736</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>140823</v>
+        <v>141782</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>164163</v>
+        <v>164204</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.7475083083581614</v>
+        <v>0.7475083083581615</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6847200884665038</v>
+        <v>0.6893832361097647</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7982081217644269</v>
+        <v>0.7984071462503873</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>395</v>
@@ -2671,19 +2671,19 @@
         <v>180814</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>170794</v>
+        <v>169777</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>188892</v>
+        <v>189480</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.7971595729038351</v>
+        <v>0.7971595729038352</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.7529839700787146</v>
+        <v>0.7485005307199158</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.8327724595646135</v>
+        <v>0.8353655274893518</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>608</v>
@@ -2692,19 +2692,19 @@
         <v>334550</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>316795</v>
+        <v>320793</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>348004</v>
+        <v>349397</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.7735484845118357</v>
+        <v>0.7735484845118358</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.732494245382682</v>
+        <v>0.7417390827653074</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.8046555448626675</v>
+        <v>0.8078757893768813</v>
       </c>
     </row>
     <row r="32">
@@ -2721,19 +2721,19 @@
         <v>32573</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24071</v>
+        <v>23408</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>45262</v>
+        <v>44076</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1583788176249658</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1170381063105038</v>
+        <v>0.1138138518780516</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2200747014175501</v>
+        <v>0.2143097333107129</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>39</v>
@@ -2742,19 +2742,19 @@
         <v>21194</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15285</v>
+        <v>14970</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>30211</v>
+        <v>29560</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.09343881836295549</v>
+        <v>0.09343881836295548</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06738525717500149</v>
+        <v>0.06599921499097336</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1331922892710945</v>
+        <v>0.1303220288052709</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>74</v>
@@ -2763,19 +2763,19 @@
         <v>53767</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>42512</v>
+        <v>42078</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>70212</v>
+        <v>68429</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1243202888910873</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09829646480916113</v>
+        <v>0.09729396110850638</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1623454883971595</v>
+        <v>0.1582227274871343</v>
       </c>
     </row>
     <row r="33">
@@ -2867,19 +2867,19 @@
         <v>4525</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1738</v>
+        <v>1859</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10107</v>
+        <v>10304</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01671431658948779</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.006420774368811247</v>
+        <v>0.00686888891765762</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03733629173129879</v>
+        <v>0.03806339064424158</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>8</v>
@@ -2888,19 +2888,19 @@
         <v>4013</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1815</v>
+        <v>1827</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8405</v>
+        <v>8222</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.01521364176789352</v>
+        <v>0.01521364176789351</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.006881029827227007</v>
+        <v>0.006928013254548225</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03186897509972389</v>
+        <v>0.03117302998926959</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>14</v>
@@ -2909,19 +2909,19 @@
         <v>8537</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>4779</v>
+        <v>4655</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>14657</v>
+        <v>14610</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.01597374583930182</v>
+        <v>0.01597374583930183</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.008941085841232488</v>
+        <v>0.008710594081600605</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02742318304173098</v>
+        <v>0.0273360196377274</v>
       </c>
     </row>
     <row r="35">
@@ -2938,19 +2938,19 @@
         <v>11277</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6960</v>
+        <v>6658</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>18223</v>
+        <v>17109</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04165787005739569</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02571067420297222</v>
+        <v>0.02459494157033477</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06731575973500373</v>
+        <v>0.06320000877807716</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>27</v>
@@ -2959,19 +2959,19 @@
         <v>13074</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>8630</v>
+        <v>8755</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>18912</v>
+        <v>19126</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.04956864682967978</v>
+        <v>0.04956864682967976</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03272102345276138</v>
+        <v>0.033193005332265</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07170490796121104</v>
+        <v>0.07251386246411166</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>45</v>
@@ -2980,19 +2980,19 @@
         <v>24351</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>17313</v>
+        <v>18034</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>32719</v>
+        <v>32602</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04556177369094918</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03239454928426545</v>
+        <v>0.03374233690287039</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06121965711204271</v>
+        <v>0.06099990470268132</v>
       </c>
     </row>
     <row r="36">
@@ -3009,19 +3009,19 @@
         <v>32026</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>23883</v>
+        <v>23623</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>41466</v>
+        <v>42164</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1183057295622418</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.08822499410793729</v>
+        <v>0.08726322292251663</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1531771560638692</v>
+        <v>0.1557545502157258</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>83</v>
@@ -3030,19 +3030,19 @@
         <v>38210</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>30713</v>
+        <v>31222</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>46694</v>
+        <v>47459</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.1448739218130452</v>
+        <v>0.1448739218130451</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1164461024228746</v>
+        <v>0.1183787839590994</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.177037031840509</v>
+        <v>0.1799376427132923</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>133</v>
@@ -3051,19 +3051,19 @@
         <v>70237</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>59002</v>
+        <v>57847</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>84121</v>
+        <v>81542</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1314169151323172</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1103966774727292</v>
+        <v>0.1082349588671876</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.157395834359199</v>
+        <v>0.1525697707091861</v>
       </c>
     </row>
     <row r="37">
@@ -3080,19 +3080,19 @@
         <v>114506</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>101551</v>
+        <v>100444</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>129595</v>
+        <v>130708</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4229888155369234</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3751330255091976</v>
+        <v>0.3710421947807231</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4787270399695269</v>
+        <v>0.4828379411264097</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>201</v>
@@ -3101,19 +3101,19 @@
         <v>109520</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>97177</v>
+        <v>96150</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>122969</v>
+        <v>122592</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.4152401300892693</v>
+        <v>0.415240130089269</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.368443523199686</v>
+        <v>0.3645486440384089</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4662315561847394</v>
+        <v>0.4648046517760208</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>363</v>
@@ -3122,19 +3122,19 @@
         <v>224026</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>206500</v>
+        <v>206557</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>244200</v>
+        <v>245071</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.4191649026463026</v>
+        <v>0.4191649026463027</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3863742004468175</v>
+        <v>0.3864800954283726</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4569129422799111</v>
+        <v>0.4585421407850503</v>
       </c>
     </row>
     <row r="38">
@@ -3151,19 +3151,19 @@
         <v>108373</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>93471</v>
+        <v>94077</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>122182</v>
+        <v>123241</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.4003332682539514</v>
+        <v>0.4003332682539513</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3452850410285869</v>
+        <v>0.3475220676772013</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4513453149077417</v>
+        <v>0.4552575487689117</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>141</v>
@@ -3172,19 +3172,19 @@
         <v>98934</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>86565</v>
+        <v>85716</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>111408</v>
+        <v>111835</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.3751036595001124</v>
+        <v>0.3751036595001123</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3282075255966574</v>
+        <v>0.3249908614415755</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.422400809000111</v>
+        <v>0.4240203211398201</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>276</v>
@@ -3193,19 +3193,19 @@
         <v>207307</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>187344</v>
+        <v>186453</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>228049</v>
+        <v>225752</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3878826626911291</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3505306124357077</v>
+        <v>0.3488651966065956</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4266929248822163</v>
+        <v>0.4223949736268054</v>
       </c>
     </row>
     <row r="39">
@@ -3297,19 +3297,19 @@
         <v>6131</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2244</v>
+        <v>2273</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>13053</v>
+        <v>12967</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.008519459694892401</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.003118269895066496</v>
+        <v>0.003157907266178197</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01813743002489684</v>
+        <v>0.0180172044909112</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>14</v>
@@ -3318,19 +3318,19 @@
         <v>13600</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>7487</v>
+        <v>7074</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>23561</v>
+        <v>24098</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01763135016576883</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.009706577140770445</v>
+        <v>0.009170606165086082</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03054433142852662</v>
+        <v>0.0312410747547948</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>19</v>
@@ -3339,19 +3339,19 @@
         <v>19732</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>11328</v>
+        <v>11580</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>32541</v>
+        <v>31916</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01323331129683892</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.00759707376806655</v>
+        <v>0.0077663085774604</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02182388350626261</v>
+        <v>0.02140510261699914</v>
       </c>
     </row>
     <row r="41">
@@ -3368,19 +3368,19 @@
         <v>12794</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7041</v>
+        <v>6482</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>21613</v>
+        <v>21282</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01777781930999118</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.00978366003800865</v>
+        <v>0.009007126047284259</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.030030837862508</v>
+        <v>0.02957052588882247</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>24</v>
@@ -3389,19 +3389,19 @@
         <v>22715</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>14204</v>
+        <v>14826</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>35124</v>
+        <v>35420</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02944817011217288</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01841368827554899</v>
+        <v>0.01922015557071935</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04553495368119028</v>
+        <v>0.04591870503434689</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>37</v>
@@ -3410,19 +3410,19 @@
         <v>35510</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>25338</v>
+        <v>24929</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>50535</v>
+        <v>50050</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02381523843832391</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01699356035444927</v>
+        <v>0.01671899917846683</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0338919698965722</v>
+        <v>0.03356710292234689</v>
       </c>
     </row>
     <row r="42">
@@ -3439,19 +3439,19 @@
         <v>21536</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>12727</v>
+        <v>12980</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>32712</v>
+        <v>32678</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.0299237233503306</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01768378215226755</v>
+        <v>0.01803624372175564</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.04545325787960005</v>
+        <v>0.04540588766749688</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>52</v>
@@ -3460,19 +3460,19 @@
         <v>43014</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>31424</v>
+        <v>31486</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>56265</v>
+        <v>57423</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.05576371472165999</v>
+        <v>0.05576371472165997</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.04073875097943649</v>
+        <v>0.04081824342883094</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.07294155628381725</v>
+        <v>0.07444271602825325</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>72</v>
@@ -3481,19 +3481,19 @@
         <v>64550</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>49770</v>
+        <v>49450</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>80718</v>
+        <v>82501</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.04329151844283563</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.03337905359545912</v>
+        <v>0.03316434349564028</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.05413502500461595</v>
+        <v>0.05533051325169496</v>
       </c>
     </row>
     <row r="43">
@@ -3510,19 +3510,19 @@
         <v>339552</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>306100</v>
+        <v>307753</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>369191</v>
+        <v>371235</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4718057347406843</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.4253234788259483</v>
+        <v>0.4276202729925724</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.5129887504184739</v>
+        <v>0.5158287847481036</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>447</v>
@@ -3531,19 +3531,19 @@
         <v>352435</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>326332</v>
+        <v>326319</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>377482</v>
+        <v>379548</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.4568967186615041</v>
+        <v>0.456896718661504</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.4230576719018392</v>
+        <v>0.4230408793646084</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4893684071447997</v>
+        <v>0.4920463537566933</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>731</v>
@@ -3552,19 +3552,19 @@
         <v>691987</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>652782</v>
+        <v>652279</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>733476</v>
+        <v>733890</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.4640928578626184</v>
+        <v>0.4640928578626185</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.4377993605531847</v>
+        <v>0.4374619317580531</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4919182232907273</v>
+        <v>0.4921956886518504</v>
       </c>
     </row>
     <row r="44">
@@ -3581,19 +3581,19 @@
         <v>339673</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>310192</v>
+        <v>309126</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>373179</v>
+        <v>371045</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4719732629041016</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4310102315658915</v>
+        <v>0.4295290742497764</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.5185298284647488</v>
+        <v>0.5155649836663874</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>422</v>
@@ -3602,19 +3602,19 @@
         <v>339602</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>314626</v>
+        <v>313636</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>366637</v>
+        <v>369928</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.4402600463388943</v>
+        <v>0.4402600463388942</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4078813993103944</v>
+        <v>0.4065985709042439</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4753088425689028</v>
+        <v>0.4795756629971678</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>699</v>
@@ -3623,19 +3623,19 @@
         <v>679275</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>639442</v>
+        <v>637756</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>721286</v>
+        <v>719042</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.455567073959383</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.4288527549981759</v>
+        <v>0.4277215847089972</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4837424784449305</v>
+        <v>0.4822379483843147</v>
       </c>
     </row>
     <row r="45">
@@ -3727,19 +3727,19 @@
         <v>11206</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>5736</v>
+        <v>6090</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>19387</v>
+        <v>20145</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01404111594103429</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.007187593819899626</v>
+        <v>0.007630521241553667</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02429190940100827</v>
+        <v>0.02524260650622336</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>13</v>
@@ -3748,19 +3748,19 @@
         <v>9163</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>4903</v>
+        <v>4974</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>15418</v>
+        <v>14816</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01103055873317697</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.005902548278942482</v>
+        <v>0.005987557583662212</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01855987506984065</v>
+        <v>0.0178356170744368</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>24</v>
@@ -3769,19 +3769,19 @@
         <v>20369</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>13023</v>
+        <v>13186</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>28830</v>
+        <v>30644</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.0125056659189367</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.007995637295672722</v>
+        <v>0.0080957156519539</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01770047274741027</v>
+        <v>0.01881419553277369</v>
       </c>
     </row>
     <row r="47">
@@ -3798,19 +3798,19 @@
         <v>40036</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>29919</v>
+        <v>30088</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>53443</v>
+        <v>53125</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.05016633296762153</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.03748893559138073</v>
+        <v>0.03770122290511154</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.06696530016445887</v>
+        <v>0.06656630921225219</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>108</v>
@@ -3819,19 +3819,19 @@
         <v>76272</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>63153</v>
+        <v>64111</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>91130</v>
+        <v>91586</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.0918139494938133</v>
+        <v>0.09181394949381332</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.07602248483782953</v>
+        <v>0.07717559239241126</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1097001176661805</v>
+        <v>0.110248602153984</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>153</v>
@@ -3840,19 +3840,19 @@
         <v>116308</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>99001</v>
+        <v>99653</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>135773</v>
+        <v>136129</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.07140752830134722</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0607818953434426</v>
+        <v>0.06118242010099008</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.08335816037733204</v>
+        <v>0.08357684240076446</v>
       </c>
     </row>
     <row r="48">
@@ -3869,19 +3869,19 @@
         <v>98005</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>81993</v>
+        <v>79982</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>118548</v>
+        <v>114011</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1228021731074578</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1027387940936156</v>
+        <v>0.1002194659362181</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1485425400856939</v>
+        <v>0.1428577235949803</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>211</v>
@@ -3890,19 +3890,19 @@
         <v>152833</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>132802</v>
+        <v>134790</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>172254</v>
+        <v>173024</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.1839766474733827</v>
+        <v>0.1839766474733828</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1598636234061719</v>
+        <v>0.1622573956558761</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2073557895717109</v>
+        <v>0.2082825635889747</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>321</v>
@@ -3911,19 +3911,19 @@
         <v>250838</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>222583</v>
+        <v>222870</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>274730</v>
+        <v>279020</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1540024930255836</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1366553928206201</v>
+        <v>0.136831414285124</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1686710812762462</v>
+        <v>0.1713049890777065</v>
       </c>
     </row>
     <row r="49">
@@ -3940,19 +3940,19 @@
         <v>285300</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>255453</v>
+        <v>257145</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>312446</v>
+        <v>310787</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3574860047983907</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3200876168668022</v>
+        <v>0.3222076459156594</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3915010694444788</v>
+        <v>0.389422003819882</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>385</v>
@@ -3961,19 +3961,19 @@
         <v>292529</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>269382</v>
+        <v>266752</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>321788</v>
+        <v>314975</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3521389533436456</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3242753576721903</v>
+        <v>0.3211095090561791</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3873607810239386</v>
+        <v>0.3791589755975975</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>678</v>
@@ -3982,19 +3982,19 @@
         <v>577828</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>541185</v>
+        <v>541132</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>617613</v>
+        <v>616606</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3547588916072122</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3322616589141953</v>
+        <v>0.3322290506586372</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3791848809237984</v>
+        <v>0.3785664599239798</v>
       </c>
     </row>
     <row r="50">
@@ -4011,19 +4011,19 @@
         <v>363525</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>335660</v>
+        <v>332048</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>396936</v>
+        <v>392772</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.4555043731854955</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4205884404737754</v>
+        <v>0.4160628239551701</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4973689596302139</v>
+        <v>0.4921514824476115</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>344</v>
@@ -4032,19 +4032,19 @@
         <v>299923</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>273942</v>
+        <v>274508</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>324555</v>
+        <v>324943</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.3610398909559813</v>
+        <v>0.3610398909559814</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.3297647359689308</v>
+        <v>0.3304460484790384</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3906917212230246</v>
+        <v>0.3911589491702996</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>647</v>
@@ -4053,19 +4053,19 @@
         <v>663448</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>624838</v>
+        <v>625746</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>708581</v>
+        <v>704664</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.4073254211469203</v>
+        <v>0.4073254211469202</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3836207465142371</v>
+        <v>0.3841781854548228</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.4350347667184907</v>
+        <v>0.4326300918677187</v>
       </c>
     </row>
     <row r="51">
@@ -4157,19 +4157,19 @@
         <v>43043</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>30049</v>
+        <v>30423</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>57999</v>
+        <v>58389</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.01219719293569244</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.008515033333032272</v>
+        <v>0.008620876188467304</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01643521740562243</v>
+        <v>0.01654577651377582</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>69</v>
@@ -4178,19 +4178,19 @@
         <v>51507</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>38695</v>
+        <v>39298</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>67964</v>
+        <v>68029</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.01382317435319006</v>
+        <v>0.01382317435319007</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.01038470615590315</v>
+        <v>0.01054655059598973</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.01823959854440488</v>
+        <v>0.01825711671903485</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>109</v>
@@ -4199,19 +4199,19 @@
         <v>94551</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>76322</v>
+        <v>76865</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>116073</v>
+        <v>116951</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01303228105684271</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.01051980706545357</v>
+        <v>0.01059459841328445</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01599877904784335</v>
+        <v>0.01611982962836463</v>
       </c>
     </row>
     <row r="53">
@@ -4228,19 +4228,19 @@
         <v>100378</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>78137</v>
+        <v>83002</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>119890</v>
+        <v>121333</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.02844396770870044</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.02214171399871423</v>
+        <v>0.02352019161548561</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.03397326242165979</v>
+        <v>0.03438203096017238</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>250</v>
@@ -4249,19 +4249,19 @@
         <v>164192</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>145581</v>
+        <v>143766</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>188398</v>
+        <v>188232</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.04406473560504302</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.03907006614391671</v>
+        <v>0.03858294681966928</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.05056106750013895</v>
+        <v>0.05051630422635739</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>364</v>
@@ -4270,19 +4270,19 @@
         <v>264570</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>236333</v>
+        <v>236955</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>292383</v>
+        <v>296968</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.03646664101425209</v>
+        <v>0.03646664101425208</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.0325746829279954</v>
+        <v>0.03266034482596112</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.04030024217048588</v>
+        <v>0.04093222906730541</v>
       </c>
     </row>
     <row r="54">
@@ -4299,19 +4299,19 @@
         <v>309805</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>274850</v>
+        <v>277383</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>346088</v>
+        <v>346623</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.08778946727765576</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.07788410034571777</v>
+        <v>0.07860189819888534</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.09807095649774022</v>
+        <v>0.09822248664038913</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>682</v>
@@ -4320,19 +4320,19 @@
         <v>429411</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>395654</v>
+        <v>397123</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>461584</v>
+        <v>465159</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1152423754265125</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1061828284506114</v>
+        <v>0.106577222445192</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1238766686329855</v>
+        <v>0.1248362483219484</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1023</v>
@@ -4341,19 +4341,19 @@
         <v>739216</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>691408</v>
+        <v>694107</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>787476</v>
+        <v>790131</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.1018890118600423</v>
+        <v>0.1018890118600422</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.0952993648554596</v>
+        <v>0.09567138467903508</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.108540884767542</v>
+        <v>0.1089067972864593</v>
       </c>
     </row>
     <row r="55">
@@ -4370,19 +4370,19 @@
         <v>1615067</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1551911</v>
+        <v>1550043</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>1679713</v>
+        <v>1680817</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.4576612313229368</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.4397645909152729</v>
+        <v>0.4392354513902784</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.4759797617463169</v>
+        <v>0.4762927332067297</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>2668</v>
@@ -4391,19 +4391,19 @@
         <v>1762765</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>1704596</v>
+        <v>1711195</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>1817685</v>
+        <v>1814755</v>
       </c>
       <c r="N55" s="6" t="n">
-        <v>0.4730786843271226</v>
+        <v>0.4730786843271227</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.4574678015742682</v>
+        <v>0.4592388010930072</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.4878179470309468</v>
+        <v>0.4870314113034711</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>4303</v>
@@ -4412,19 +4412,19 @@
         <v>3377832</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>3288178</v>
+        <v>3292737</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>3471450</v>
+        <v>3463234</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.4655794840923951</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.4532220355905585</v>
+        <v>0.4538504584431223</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.4784831992397954</v>
+        <v>0.4773507184075819</v>
       </c>
     </row>
     <row r="56">
@@ -4441,19 +4441,19 @@
         <v>1460664</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1396017</v>
+        <v>1391391</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>1526774</v>
+        <v>1525496</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.4139081407550146</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3955890518945985</v>
+        <v>0.3942780809906279</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4326417165563635</v>
+        <v>0.432279533915326</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1681</v>
@@ -4462,19 +4462,19 @@
         <v>1318280</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>1266851</v>
+        <v>1265327</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>1377152</v>
+        <v>1371027</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.3537910302881317</v>
+        <v>0.3537910302881318</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.3399887280924871</v>
+        <v>0.3395797066128034</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.3695905402340902</v>
+        <v>0.3679468147787068</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>2922</v>
@@ -4483,19 +4483,19 @@
         <v>2778945</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>2692468</v>
+        <v>2687743</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>2867552</v>
+        <v>2865129</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.3830325819764679</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.3711131486245309</v>
+        <v>0.370461807737493</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.3952456492576848</v>
+        <v>0.3949116131223193</v>
       </c>
     </row>
     <row r="57">
